--- a/data/outputs/management_elsevier/94.xlsx
+++ b/data/outputs/management_elsevier/94.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS83"/>
+  <dimension ref="A1:BU83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84929377646</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1084</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1148,6 +1164,12 @@
           <t>2-s2.0-84929304431</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>4439</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1373,6 +1395,12 @@
           <t>2-s2.0-84929309410</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1544</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1590,6 +1618,12 @@
           <t>2-s2.0-84929339882</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>8053</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1813,6 +1847,12 @@
           <t>2-s2.0-84929302926</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>4639</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2038,6 +2078,12 @@
           <t>2-s2.0-84929379645</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>4540</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2259,6 +2305,12 @@
           <t>2-s2.0-84929325127</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1549</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2480,6 +2532,12 @@
           <t>2-s2.0-84929302348</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>3497</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2695,6 +2753,12 @@
           <t>2-s2.0-84930010067</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1314</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2913,6 +2977,12 @@
         <is>
           <t>2-s2.0-84930206880</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>2978</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -3121,6 +3191,12 @@
           <t>2-s2.0-84929353003</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2507</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3343,6 +3419,12 @@
         <is>
           <t>2-s2.0-84929319342</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>5241</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -3549,6 +3631,12 @@
           <t>2-s2.0-84929313134</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>4149</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3767,6 +3855,12 @@
         <is>
           <t>2-s2.0-84929358998</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>1202</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3977,6 +4071,12 @@
           <t>2-s2.0-84929340077</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1980</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4192,6 +4292,12 @@
           <t>2-s2.0-84929314864</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2044</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4414,6 +4520,12 @@
         <is>
           <t>2-s2.0-84929378673</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>2842</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -4622,6 +4734,12 @@
           <t>2-s2.0-84929359015</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1498</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4845,6 +4963,12 @@
           <t>2-s2.0-84929353045</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1634</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5062,6 +5186,12 @@
           <t>2-s2.0-84929377670</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>3050</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5283,6 +5413,12 @@
           <t>2-s2.0-84929376665</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>5392</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5494,6 +5630,12 @@
           <t>2-s2.0-84929346713</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5709,6 +5851,12 @@
           <t>2-s2.0-84929329910</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2418</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5929,6 +6077,12 @@
         <is>
           <t>2-s2.0-84929326794</t>
         </is>
+      </c>
+      <c r="BT25" t="n">
+        <v>2059</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -6137,6 +6291,12 @@
           <t>2-s2.0-84929378692</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1947</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6344,6 +6504,12 @@
           <t>2-s2.0-84929378693</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6551,6 +6717,12 @@
           <t>2-s2.0-84929306265</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2375</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6766,6 +6938,12 @@
           <t>2-s2.0-84929327077</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>3009</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6979,6 +7157,12 @@
           <t>2-s2.0-84929359034</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1273</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7195,6 +7379,12 @@
         <is>
           <t>2-s2.0-84929376883</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>2903</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -7401,6 +7591,12 @@
           <t>2-s2.0-84929377885</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1143</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7618,6 +7814,12 @@
           <t>2-s2.0-84930002484</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>4013</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7836,6 +8038,12 @@
         <is>
           <t>2-s2.0-84930001431</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>815</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -8043,6 +8251,12 @@
         <is>
           <t>2-s2.0-84929991149</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>3221</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -8241,6 +8455,12 @@
           <t>2-s2.0-84937874903</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1161</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8456,6 +8676,12 @@
           <t>2-s2.0-84921523096</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>5696</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8670,6 +8896,12 @@
         <is>
           <t>2-s2.0-84921472616</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>5890</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -8878,6 +9110,12 @@
           <t>2-s2.0-84921442631</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1280</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9085,6 +9323,12 @@
           <t>2-s2.0-84921473302</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>3515</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9300,6 +9544,12 @@
           <t>2-s2.0-84921462153</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>3272</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9514,6 +9764,12 @@
         <is>
           <t>2-s2.0-84921470333</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>1002</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -9722,6 +9978,12 @@
           <t>2-s2.0-84921471008</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1008</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9931,6 +10193,12 @@
           <t>2-s2.0-84921520100</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>2653</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10148,6 +10416,12 @@
           <t>2-s2.0-84908461769</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>17597</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10360,6 +10634,12 @@
         <is>
           <t>2-s2.0-84912544694</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>3574</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="47">
@@ -10568,6 +10848,12 @@
           <t>2-s2.0-84912571848</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>2028</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10779,6 +11065,12 @@
           <t>2-s2.0-84912572063</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>7282</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10992,6 +11284,12 @@
           <t>2-s2.0-84912544743</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>2694</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11206,6 +11504,12 @@
         <is>
           <t>2-s2.0-84912569634</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>7896</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -11416,6 +11720,12 @@
           <t>2-s2.0-84913622286</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1716</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11623,6 +11933,12 @@
           <t>2-s2.0-84912535911</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1772</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11840,6 +12156,12 @@
           <t>2-s2.0-84912544686</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1361</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12051,6 +12373,12 @@
           <t>2-s2.0-84912569563</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1468</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12264,6 +12592,12 @@
           <t>2-s2.0-84912553095</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>1855</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12480,6 +12814,12 @@
         <is>
           <t>2-s2.0-84912571785</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>3817</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -12686,6 +13026,12 @@
           <t>2-s2.0-84912544750</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>6320</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12893,6 +13239,12 @@
           <t>2-s2.0-84912573275</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2649</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13107,6 +13459,12 @@
         <is>
           <t>2-s2.0-84912569244</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>3462</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -13299,6 +13657,12 @@
           <t>2-s2.0-84912550393</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>719</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13504,6 +13868,12 @@
           <t>2-s2.0-84913622016</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>1707</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13712,6 +14082,12 @@
         <is>
           <t>2-s2.0-84913621290</t>
         </is>
+      </c>
+      <c r="BT62" t="n">
+        <v>2618</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -13916,6 +14292,12 @@
           <t>2-s2.0-84913621997</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>694</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14136,6 +14518,12 @@
         <is>
           <t>2-s2.0-84913605825</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>2568</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -14346,6 +14734,12 @@
           <t>2-s2.0-84912556522</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>2566</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14561,6 +14955,12 @@
           <t>2-s2.0-84922328244</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>2684</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14777,6 +15177,12 @@
         <is>
           <t>2-s2.0-84917739001</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>2828</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="68">
@@ -14985,6 +15391,12 @@
           <t>2-s2.0-84922338175</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>2893</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15198,6 +15610,12 @@
           <t>2-s2.0-84922338072</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>4979</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15415,6 +15833,12 @@
           <t>2-s2.0-84922337719</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>2118</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15629,6 +16053,12 @@
         <is>
           <t>2-s2.0-84922338075</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>10886</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="72">
@@ -15839,6 +16269,12 @@
           <t>2-s2.0-84922338319</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>2563</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16055,6 +16491,12 @@
         <is>
           <t>2-s2.0-84922338372</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>7093</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="74">
@@ -16263,6 +16705,12 @@
           <t>2-s2.0-84922271933</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>1954</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16470,6 +16918,12 @@
           <t>2-s2.0-84922338296</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>4155</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16687,6 +17141,12 @@
           <t>2-s2.0-84922337704</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>4209</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16898,6 +17358,12 @@
           <t>2-s2.0-84922337817</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>4443</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17116,6 +17582,12 @@
         <is>
           <t>2-s2.0-84914115184</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>24829</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="79">
@@ -17326,6 +17798,12 @@
           <t>2-s2.0-84922338123</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>2722</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17540,6 +18018,12 @@
         <is>
           <t>2-s2.0-84922337664</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>4794</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="81">
@@ -17750,6 +18234,12 @@
           <t>2-s2.0-84922337589</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>2612</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17957,6 +18447,12 @@
           <t>2-s2.0-84922338074</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>3202</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18174,6 +18670,12 @@
           <t>2-s2.0-84922337701</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>2090</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
